--- a/doc/02_外部設計/02_機能一覧_A4.xlsx
+++ b/doc/02_外部設計/02_機能一覧_A4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\研修資料６月\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB476CB6-8E73-4024-8B66-26743B8BB558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE04F7BA-C269-4B4D-9519-9CBAF68B6381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="103">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -773,68 +773,6 @@
     <t>レビュー登録</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョクコウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー名、画像、価格、テンプレート、公開・非公開の選択を入力する
-登録時エラーチェックを行い、問題なければデータ登録を行う。データ登録後はマイページのレビュー一覧を表示する（レビュー登録時のモーダルを消す）</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ヒコウカイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>トウロクジ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>ケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1280,6 +1218,81 @@
     <t>アイコンをクリックするとモーダルが表示される</t>
     <rPh sb="17" eb="19">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー名、画像、価格、評価項目、公開・非公開の選択を入力する
+登録時エラーチェックを行い、問題なければデータ登録を行う。データ登録後はマイページのレビュー一覧を表示する（レビュー登録時のモーダルを消す）</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価項目追加</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1368,7 +1381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1390,28 +1403,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1718,11 +1716,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M65"/>
+  <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1735,7 +1731,7 @@
     <col min="8" max="8" width="33.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1745,12 +1741,12 @@
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H2" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1760,31 +1756,31 @@
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="9">
         <v>45454</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1810,129 +1806,128 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B9" s="12">
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B10" s="12">
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="2:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12">
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" s="11" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B12" s="12">
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B13" s="12">
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1945,959 +1940,817 @@
       <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="12">
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B15" s="12">
+      <c r="I14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B16" s="12">
+      <c r="I15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B17" s="12">
+      <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B18" s="12">
+      <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B19" s="12">
+      <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="66" x14ac:dyDescent="0.2">
-      <c r="B20" s="12">
+      <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B21" s="12">
+      <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B22" s="12">
+      <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B23" s="12">
+      <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B24" s="12">
+      <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B25" s="12">
+      <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B26" s="12">
+      <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B27" s="12">
+      <c r="I26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B28" s="12">
+      <c r="I27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="14"/>
+      <c r="H28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B29" s="12">
-        <v>22</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="2">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="92.4" x14ac:dyDescent="0.2">
-      <c r="B30" s="12">
+      <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>24</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="12">
-        <v>24</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="F32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B32" s="12">
-        <v>25</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="H33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="105.6" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>26</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="12" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="105.6" x14ac:dyDescent="0.2">
-      <c r="B33" s="12">
-        <v>26</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="G34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>27</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="B34" s="12">
-        <v>27</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="H35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" s="11" customFormat="1" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="B35" s="12">
-        <v>28</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B36" s="12">
-        <v>29</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>69</v>
+        <v>86</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B37" s="12">
-        <v>30</v>
-      </c>
-      <c r="C37" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B38" s="12">
+      <c r="I38" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
         <v>31</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="I39" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>33</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>34</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B39" s="12">
-        <v>32</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="12" t="s">
+      <c r="H42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>35</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>36</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="12">
-        <v>33</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B41" s="12">
-        <v>34</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="2:10" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B42" s="12">
-        <v>35</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B43" s="12">
-        <v>36</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="I44" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H66"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/02_外部設計/02_機能一覧_A4.xlsx
+++ b/doc/02_外部設計/02_機能一覧_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE04F7BA-C269-4B4D-9519-9CBAF68B6381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63A15FC-ED03-4B6A-A38E-A8C0AE8C7673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -1294,6 +1294,10 @@
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1718,7 +1722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1965,7 +1971,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>31</v>
@@ -2086,7 +2092,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>43</v>

--- a/doc/02_外部設計/02_機能一覧_A4.xlsx
+++ b/doc/02_外部設計/02_機能一覧_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63A15FC-ED03-4B6A-A38E-A8C0AE8C7673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C43DB0-875E-4DBB-9A46-74A2D298799E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -819,116 +819,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バックナンバー追加</t>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー詳細表示の追加ボタンを押し、
-新しいコメントや画像を追加することで、
-過去のレビュー（バックナンバー）に追加する形でレビューの追加を行う
-追加時エラーチェックを行い、問題なければデータ登録を行う。データ登録後はレビュー詳細画面を表示する</t>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>カタチ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー編集</t>
     <rPh sb="4" eb="6">
       <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー詳細表示の編集ボタンを押し、
-編集後更新ボタンを押す
-更新時エラーチェックを行い、問題なければデータ登録を行う。更新後はレビュー詳細画面を表示する</t>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1298,6 +1191,58 @@
   </si>
   <si>
     <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー詳細表示の編集ボタンを押し、
+編集後更新ボタンを押すことでレビューの編集を行う
+また、レビュー編集ページ下部にコメントを追加することで、新しいコメントを追加することができる
+更新時エラーチェックを行い、問題なければデータ登録を行う。更新後はレビュー詳細画面を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1720,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J66"/>
+  <dimension ref="B2:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1748,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -1971,7 +1916,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>31</v>
@@ -2022,7 +1967,7 @@
         <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>22</v>
@@ -2092,7 +2037,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>43</v>
@@ -2119,7 +2064,7 @@
         <v>23</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>22</v>
@@ -2311,7 +2256,7 @@
         <v>72</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>22</v>
@@ -2360,7 +2305,7 @@
         <v>72</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>22</v>
@@ -2373,7 +2318,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2428,9 +2373,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="105.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>73</v>
@@ -2446,7 +2391,7 @@
         <v>72</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>22</v>
@@ -2454,14 +2399,14 @@
     </row>
     <row r="35" spans="2:9" ht="79.2" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>75</v>
@@ -2470,31 +2415,31 @@
         <v>72</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>22</v>
@@ -2502,23 +2447,23 @@
     </row>
     <row r="37" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>22</v>
@@ -2526,14 +2471,14 @@
     </row>
     <row r="38" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>66</v>
@@ -2542,7 +2487,7 @@
         <v>72</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>22</v>
@@ -2550,147 +2495,126 @@
     </row>
     <row r="39" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>95</v>
+      <c r="H40" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B44" s="2">
-        <v>36</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H44"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H45"/>
@@ -2754,9 +2678,6 @@
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H66"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/02_外部設計/02_機能一覧_A4.xlsx
+++ b/doc/02_外部設計/02_機能一覧_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C43DB0-875E-4DBB-9A46-74A2D298799E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FC19B9-59E1-405B-BCFF-E9C0E0134A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -259,32 +259,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイコンモーダル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーダル内にアイコン・ログアウト・個人ページ公開非公開・ユーザーネームを変更できる欄を作成</t>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="22" eb="27">
-      <t>コウカイヒコウカイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規登録画面に移行。ボタンを押すとjsp切り替わり</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
@@ -397,32 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>繰り下がる箱でフォローしたユーザーを表示</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サブヘッダー/フォロー一覧表示</t>
-    <rPh sb="11" eb="13">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サブヘッダー/レビュー内検索</t>
     <rPh sb="11" eb="12">
       <t>ナイ</t>
@@ -433,37 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>繰り下がる箱でレビュー内の検索を行う。フリーワード検索・値段検索</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ネダン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -530,41 +447,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保存確認モーダル</t>
-    <rPh sb="0" eb="2">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビューの保存・編集を行い保存をクリックで「保存しますか？はい　いいえ」確認のモーダルを表示する</t>
-    <rPh sb="5" eb="7">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サブカテゴリー/リスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -654,23 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リストレビュー削除ボタン</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リストに入っているレビューをリストから削除することができる</t>
-    <rPh sb="4" eb="5">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ListServlet</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -738,38 +603,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビュー登録表示</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーダルを表示する（画面右下の登録ボタンを押したときの表示）</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ミギシタ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー登録</t>
     <rPh sb="4" eb="6">
       <t>ニュウリョクコウカイ</t>
@@ -782,38 +615,6 @@
       <t>イチラン</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー詳細表示</t>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーダルを表示する（レビュー一覧の個々のレビューを選択した際の表示）</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ココ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -975,55 +776,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>繰り下がる箱でサブヘッダーのカテゴリをクリックで大カテゴリ→小カテゴリの順で表示、クリックした条件に当てはまるレビューを表示、この時カテゴリ名の後ろに登録件数を表示する</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ウシ</t>
-    </rPh>
-    <rPh sb="75" eb="79">
-      <t>トウロクケンスウ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リストレビュー並び替え</t>
     <rPh sb="7" eb="8">
       <t>ナラ</t>
@@ -1078,32 +830,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>アツシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リストレビュー削除確認モーダル</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リストレビュー削除ボタンをクリック後確認が入るモーダル</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ハイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1243,6 +969,107 @@
     <rPh sb="134" eb="136">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップダウンでレビュー内の検索を行う。フリーワード検索・値段検索・評価検索・作成日検索ができる</t>
+    <rPh sb="12" eb="13">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>サクセイビ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップダウンでフォローしたユーザーを表示</t>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップダウンでサブヘッダーのカテゴリをクリックで大カテゴリ→小カテゴリの順で表示、クリックした条件に当てはまるレビューを表示、この時カテゴリ名の後ろに登録件数を表示する</t>
+    <rPh sb="25" eb="26">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="76" eb="80">
+      <t>トウロクケンスウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューの評価項目を１つ以上５つ以下まで追加できる</t>
+    <rPh sb="5" eb="9">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブヘッダー/フォロー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1665,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J65"/>
+  <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1693,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -1814,7 +1641,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -1823,7 +1650,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -1834,14 +1661,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>20</v>
@@ -1858,20 +1685,20 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -1916,7 +1743,7 @@
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>31</v>
@@ -1934,7 +1761,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
@@ -1943,7 +1770,7 @@
         <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>22</v>
@@ -1967,32 +1794,32 @@
         <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>22</v>
@@ -2000,7 +1827,7 @@
     </row>
     <row r="18" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -2013,7 +1840,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>41</v>
@@ -2022,73 +1849,73 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="66" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="66" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>22</v>
@@ -2096,23 +1923,23 @@
     </row>
     <row r="22" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>22</v>
@@ -2120,119 +1947,120 @@
     </row>
     <row r="23" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" ht="92.4" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>22</v>
@@ -2240,110 +2068,115 @@
     </row>
     <row r="28" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="92.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
+    <row r="31" spans="2:10" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>27</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>22</v>
@@ -2351,95 +2184,95 @@
     </row>
     <row r="33" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="79.2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>22</v>
@@ -2447,171 +2280,45 @@
     </row>
     <row r="37" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B38" s="2">
-        <v>31</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B39" s="2">
-        <v>32</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H39"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="2">
-        <v>33</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B41" s="2">
-        <v>34</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="52.8" x14ac:dyDescent="0.2">
-      <c r="B42" s="2">
-        <v>35</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B43" s="2">
-        <v>36</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H43"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H44"/>
@@ -2660,24 +2367,6 @@
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59"/>
-    </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H60"/>
-    </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H61"/>
-    </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H62"/>
-    </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H63"/>
-    </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H64"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H65"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/doc/02_外部設計/02_機能一覧_A4.xlsx
+++ b/doc/02_外部設計/02_機能一覧_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FC19B9-59E1-405B-BCFF-E9C0E0134A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AACB098-C8D3-4854-9EA9-0BA502B8C6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="89">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -207,18 +207,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログ表示</t>
     <rPh sb="2" eb="4">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MypageServlet</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -341,16 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロゴをクリックでマイページ/すべてカテゴリ/更新順を表示</t>
-    <rPh sb="22" eb="25">
-      <t>コウシンジュン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全体検索ボタン</t>
     <rPh sb="0" eb="4">
       <t>ゼンタイケンサク</t>
@@ -585,10 +567,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー内検索</t>
     <rPh sb="4" eb="5">
       <t>ナイ</t>
@@ -596,10 +574,6 @@
     <rPh sb="5" eb="7">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MypageServlet</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1070,6 +1044,24 @@
   </si>
   <si>
     <t>サブヘッダー/フォロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイレビューページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロゴをクリックでマイレビューページ/すべてカテゴリ/更新順を表示</t>
+    <rPh sb="26" eb="29">
+      <t>コウシンジュン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyReviewServlet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1494,15 +1486,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.21875" customWidth="1"/>
     <col min="2" max="2" width="6.77734375" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
@@ -1520,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -1641,7 +1634,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -1650,7 +1643,7 @@
         <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -1661,14 +1654,14 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>20</v>
@@ -1685,20 +1678,20 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -1709,20 +1702,20 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -1733,20 +1726,20 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>22</v>
@@ -1757,20 +1750,20 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>22</v>
@@ -1781,20 +1774,20 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>22</v>
@@ -1806,20 +1799,20 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>22</v>
@@ -1830,20 +1823,20 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>22</v>
@@ -1854,20 +1847,20 @@
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>22</v>
@@ -1878,20 +1871,20 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>22</v>
@@ -1902,20 +1895,20 @@
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>22</v>
@@ -1926,20 +1919,20 @@
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>22</v>
@@ -1950,20 +1943,20 @@
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>22</v>
@@ -1974,20 +1967,20 @@
         <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>22</v>
@@ -1998,20 +1991,20 @@
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>22</v>
@@ -2022,20 +2015,20 @@
         <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>22</v>
@@ -2047,20 +2040,20 @@
         <v>23</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>22</v>
@@ -2071,18 +2064,18 @@
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -2091,20 +2084,20 @@
         <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>22</v>
@@ -2115,20 +2108,20 @@
         <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>22</v>
@@ -2139,20 +2132,20 @@
         <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>22</v>
@@ -2163,20 +2156,20 @@
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>22</v>
@@ -2187,20 +2180,20 @@
         <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>22</v>
@@ -2211,20 +2204,20 @@
         <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>22</v>
@@ -2235,20 +2228,20 @@
         <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>22</v>
@@ -2259,20 +2252,20 @@
         <v>32</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>22</v>
@@ -2283,20 +2276,20 @@
         <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>22</v>
